--- a/proj1/sample_output/marksheet/concise_marksheet.xlsx
+++ b/proj1/sample_output/marksheet/concise_marksheet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-35.0/145.0</t>
+          <t>1.0/145.0</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-20.0/145.0</t>
+          <t>13.0/145.0</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-42.5/145.0</t>
+          <t>-5.0/145.0</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-35.0/145.0</t>
+          <t>1.0/145.0</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>137.5/145.0</t>
+          <t>139.0/145.0</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>137.5/145.0</t>
+          <t>139.0/145.0</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-20.0/145.0</t>
+          <t>13.0/145.0</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>137.5/145.0</t>
+          <t>139.0/145.0</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -12987,7 +12987,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -16599,7 +16599,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -17015,7 +17015,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-20.0/145.0</t>
+          <t>13.0/145.0</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -17119,7 +17119,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -17295,7 +17295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -18803,7 +18803,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>137.5/145.0</t>
+          <t>139.0/145.0</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -20163,7 +20163,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -21883,7 +21883,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -22675,7 +22675,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -22863,7 +22863,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -23359,7 +23359,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -23807,7 +23807,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -24975,7 +24975,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -25295,7 +25295,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -25791,7 +25791,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -26151,7 +26151,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -26507,7 +26507,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -26695,7 +26695,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -27007,7 +27007,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -27191,7 +27191,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -27567,7 +27567,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -27711,7 +27711,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -27871,7 +27871,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -28215,7 +28215,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -28551,7 +28551,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -28723,7 +28723,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -29203,7 +29203,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -29515,7 +29515,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -29655,7 +29655,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -29807,7 +29807,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -29975,7 +29975,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -30327,7 +30327,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -30463,7 +30463,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -30875,7 +30875,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -31051,7 +31051,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -31235,7 +31235,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -31391,7 +31391,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -31527,7 +31527,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -31851,7 +31851,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -32151,7 +32151,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -32315,7 +32315,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -32495,7 +32495,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -32683,7 +32683,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -33339,7 +33339,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -33615,7 +33615,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H202" t="n">
@@ -33771,7 +33771,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H207" t="n">
@@ -34591,7 +34591,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -34731,7 +34731,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -35067,7 +35067,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -35223,7 +35223,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H212" t="n">
@@ -35371,7 +35371,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -35543,7 +35543,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -35671,7 +35671,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -35787,7 +35787,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -35975,7 +35975,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-20.0/145.0</t>
+          <t>13.0/145.0</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -36091,7 +36091,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -36219,7 +36219,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H219" t="n">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -36519,7 +36519,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -36671,7 +36671,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -36831,7 +36831,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H223" t="n">
@@ -36971,7 +36971,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -37147,7 +37147,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -37479,7 +37479,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -37623,7 +37623,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -37771,7 +37771,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H229" t="n">
@@ -37915,7 +37915,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -38103,7 +38103,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -38271,7 +38271,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -38451,7 +38451,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -38611,7 +38611,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H234" t="n">
@@ -38787,7 +38787,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -38955,7 +38955,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H236" t="n">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -39307,7 +39307,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -39467,7 +39467,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H239" t="n">
@@ -39639,7 +39639,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -39803,7 +39803,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H241" t="n">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -40143,7 +40143,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -40267,7 +40267,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H244" t="n">
@@ -40431,7 +40431,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -40559,7 +40559,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -40743,7 +40743,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -40899,7 +40899,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H248" t="n">
@@ -41047,7 +41047,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -41211,7 +41211,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -41323,7 +41323,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -41479,7 +41479,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -41655,7 +41655,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -41803,7 +41803,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -41971,7 +41971,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -42115,7 +42115,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -42291,7 +42291,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H257" t="n">
@@ -42479,7 +42479,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H258" t="n">
@@ -42635,7 +42635,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H259" t="n">
@@ -42787,7 +42787,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -42943,7 +42943,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H261" t="n">
@@ -43127,7 +43127,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -43247,7 +43247,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H263" t="n">
@@ -43395,7 +43395,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H264" t="n">
@@ -43579,7 +43579,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H265" t="n">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H266" t="n">
@@ -43887,7 +43887,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H267" t="n">
@@ -44063,7 +44063,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H268" t="n">
@@ -44187,7 +44187,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H269" t="n">
@@ -44371,7 +44371,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H270" t="n">
@@ -44523,7 +44523,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H271" t="n">
@@ -44663,7 +44663,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -44815,7 +44815,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H273" t="n">
@@ -44975,7 +44975,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -45139,7 +45139,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H275" t="n">
@@ -45255,7 +45255,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -45419,7 +45419,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -45603,7 +45603,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -45759,7 +45759,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H279" t="n">
@@ -45927,7 +45927,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H280" t="n">
@@ -46055,7 +46055,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H281" t="n">
@@ -46231,7 +46231,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H282" t="n">
@@ -46407,7 +46407,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H283" t="n">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H284" t="n">
@@ -46751,7 +46751,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -46919,7 +46919,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H286" t="n">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H287" t="n">
@@ -47231,7 +47231,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H288" t="n">
@@ -47399,7 +47399,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H289" t="n">
@@ -47583,7 +47583,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H290" t="n">
@@ -47759,7 +47759,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H291" t="n">
@@ -47947,7 +47947,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H292" t="n">
@@ -48107,7 +48107,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>122.5/145.0</t>
+          <t>127.0/145.0</t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -48287,7 +48287,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H294" t="n">
@@ -48447,7 +48447,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H295" t="n">
@@ -48599,7 +48599,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H296" t="n">
@@ -48743,7 +48743,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -48879,7 +48879,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -49051,7 +49051,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>-35.0/145.0</t>
+          <t>1.0/145.0</t>
         </is>
       </c>
       <c r="H299" t="n">
@@ -49151,7 +49151,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H300" t="n">
@@ -49319,7 +49319,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H301" t="n">
@@ -49467,7 +49467,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H302" t="n">
@@ -49639,7 +49639,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H303" t="n">
@@ -49799,7 +49799,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H304" t="n">
@@ -49927,7 +49927,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H305" t="n">
@@ -50107,7 +50107,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H306" t="n">
@@ -50251,7 +50251,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H307" t="n">
@@ -50411,7 +50411,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H308" t="n">
@@ -50539,7 +50539,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H309" t="n">
@@ -50715,7 +50715,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H310" t="n">
@@ -50891,7 +50891,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H311" t="n">
@@ -51055,7 +51055,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H312" t="n">
@@ -51239,7 +51239,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H313" t="n">
@@ -51415,7 +51415,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H314" t="n">
@@ -51567,7 +51567,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H315" t="n">
@@ -51731,7 +51731,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H316" t="n">
@@ -51863,7 +51863,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H317" t="n">
@@ -52015,7 +52015,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H318" t="n">
@@ -52191,7 +52191,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H319" t="n">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H320" t="n">
@@ -52535,7 +52535,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H321" t="n">
@@ -52711,7 +52711,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H322" t="n">
@@ -52883,7 +52883,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H323" t="n">
@@ -53063,7 +53063,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H324" t="n">
@@ -53199,7 +53199,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-27.5/145.0</t>
+          <t>7.0/145.0</t>
         </is>
       </c>
       <c r="H325" t="n">
@@ -53363,7 +53363,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H326" t="n">
@@ -53523,7 +53523,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H327" t="n">
@@ -53683,7 +53683,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H328" t="n">
@@ -53867,7 +53867,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>62.5/145.0</t>
+          <t>79.0/145.0</t>
         </is>
       </c>
       <c r="H329" t="n">
@@ -54027,7 +54027,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>137.5/145.0</t>
+          <t>139.0/145.0</t>
         </is>
       </c>
       <c r="H330" t="n">
@@ -54215,7 +54215,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H331" t="n">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H332" t="n">
@@ -54503,7 +54503,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H333" t="n">
@@ -54663,7 +54663,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H334" t="n">
@@ -54815,7 +54815,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H335" t="n">
@@ -54991,7 +54991,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H336" t="n">
@@ -55151,7 +55151,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H337" t="n">
@@ -55279,7 +55279,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H338" t="n">
@@ -55439,7 +55439,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H339" t="n">
@@ -55619,7 +55619,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H340" t="n">
@@ -55767,7 +55767,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H341" t="n">
@@ -55947,7 +55947,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H342" t="n">
@@ -56087,7 +56087,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H343" t="n">
@@ -56231,7 +56231,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H344" t="n">
@@ -56411,7 +56411,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H345" t="n">
@@ -56579,7 +56579,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H346" t="n">
@@ -56723,7 +56723,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H347" t="n">
@@ -56895,7 +56895,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H348" t="n">
@@ -57059,7 +57059,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H349" t="n">
@@ -57203,7 +57203,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H350" t="n">
@@ -57371,7 +57371,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H351" t="n">
@@ -57551,7 +57551,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H352" t="n">
@@ -57735,7 +57735,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H353" t="n">
@@ -57887,7 +57887,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H354" t="n">
@@ -58039,7 +58039,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>130.0/145.0</t>
+          <t>133.0/145.0</t>
         </is>
       </c>
       <c r="H355" t="n">
@@ -58227,7 +58227,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H356" t="n">
@@ -58395,7 +58395,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H357" t="n">
@@ -58571,7 +58571,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H358" t="n">
@@ -58735,7 +58735,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H359" t="n">
@@ -58871,7 +58871,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H360" t="n">
@@ -59027,7 +59027,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H361" t="n">
@@ -59215,7 +59215,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H362" t="n">
@@ -59355,7 +59355,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H363" t="n">
@@ -59519,7 +59519,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H364" t="n">
@@ -59639,7 +59639,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H365" t="n">
@@ -59787,7 +59787,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H366" t="n">
@@ -59963,7 +59963,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H367" t="n">
@@ -60083,7 +60083,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>17.5/145.0</t>
+          <t>43.0/145.0</t>
         </is>
       </c>
       <c r="H368" t="n">
@@ -60223,7 +60223,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H369" t="n">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H370" t="n">
@@ -60503,7 +60503,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>25.0/145.0</t>
+          <t>49.0/145.0</t>
         </is>
       </c>
       <c r="H371" t="n">
@@ -60651,7 +60651,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>40.0/145.0</t>
+          <t>61.0/145.0</t>
         </is>
       </c>
       <c r="H372" t="n">
@@ -60799,7 +60799,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H373" t="n">
@@ -60943,7 +60943,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H374" t="n">
@@ -61071,7 +61071,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>77.5/145.0</t>
+          <t>91.0/145.0</t>
         </is>
       </c>
       <c r="H375" t="n">
@@ -61227,7 +61227,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>-50.0/145.0</t>
+          <t>-11.0/145.0</t>
         </is>
       </c>
       <c r="H376" t="n">
@@ -61319,7 +61319,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>107.5/145.0</t>
+          <t>115.0/145.0</t>
         </is>
       </c>
       <c r="H377" t="n">
@@ -61495,7 +61495,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>32.5/145.0</t>
+          <t>55.0/145.0</t>
         </is>
       </c>
       <c r="H378" t="n">
@@ -61639,7 +61639,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>100.0/145.0</t>
+          <t>109.0/145.0</t>
         </is>
       </c>
       <c r="H379" t="n">
@@ -61815,7 +61815,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H380" t="n">
@@ -61951,7 +61951,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H381" t="n">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>47.5/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
       <c r="H382" t="n">
@@ -62283,7 +62283,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>92.5/145.0</t>
+          <t>103.0/145.0</t>
         </is>
       </c>
       <c r="H383" t="n">
@@ -62463,7 +62463,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H384" t="n">
@@ -62651,7 +62651,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H385" t="n">
@@ -62839,7 +62839,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>70.0/145.0</t>
+          <t>85.0/145.0</t>
         </is>
       </c>
       <c r="H386" t="n">
@@ -62991,7 +62991,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>115.0/145.0</t>
+          <t>121.0/145.0</t>
         </is>
       </c>
       <c r="H387" t="n">
@@ -63175,7 +63175,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>-12.5/145.0</t>
+          <t>19.0/145.0</t>
         </is>
       </c>
       <c r="H388" t="n">
@@ -63291,7 +63291,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H389" t="n">
@@ -63407,7 +63407,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>2.5/145.0</t>
+          <t>31.0/145.0</t>
         </is>
       </c>
       <c r="H390" t="n">
@@ -63539,7 +63539,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>-5.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
       <c r="H391" t="n">
@@ -63659,7 +63659,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
       <c r="H392" t="n">
@@ -63827,7 +63827,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>85.0/145.0</t>
+          <t>97.0/145.0</t>
         </is>
       </c>
       <c r="H393" t="n">
@@ -63999,7 +63999,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H394" t="n">
@@ -64119,7 +64119,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>10.0/145.0</t>
+          <t>37.0/145.0</t>
         </is>
       </c>
       <c r="H395" t="n">
